--- a/SPPSApi/Doc/Template/FS0605_Data.xlsx
+++ b/SPPSApi/Doc/Template/FS0605_Data.xlsx
@@ -24,55 +24,45 @@
     <t>工区</t>
   </si>
   <si>
-    <t>联系人1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能力确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>能力确认</t>
+  </si>
+  <si>
+    <t>联系人1</t>
+  </si>
+  <si>
+    <t>电话1</t>
+  </si>
+  <si>
+    <t>邮箱1</t>
+  </si>
+  <si>
+    <t>联系人2</t>
+  </si>
+  <si>
+    <t>电话2</t>
+  </si>
+  <si>
+    <t>邮箱2</t>
+  </si>
+  <si>
+    <t>联系人3</t>
+  </si>
+  <si>
+    <t>电话3</t>
+  </si>
+  <si>
+    <t>邮箱3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,27 +92,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -145,15 +121,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,7 +427,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -479,42 +446,42 @@
     <col min="12" max="12" width="18.36328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>10</v>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +502,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
